--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/supply/supply_tab_final_calculations.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/supply/supply_tab_final_calculations.xlsx
@@ -487,34 +487,34 @@
         <v>50.9073625629338</v>
       </c>
       <c r="C2" t="n">
-        <v>47.8097517157213</v>
+        <v>54.3076488215201</v>
       </c>
       <c r="D2" t="n">
-        <v>49.7109112969368</v>
+        <v>56.4847680125542</v>
       </c>
       <c r="E2" t="n">
-        <v>48.2853138647172</v>
+        <v>56.279003012013</v>
       </c>
       <c r="F2" t="n">
-        <v>48.4279395189257</v>
+        <v>60.254933695857</v>
       </c>
       <c r="G2" t="n">
-        <v>55.6633512104006</v>
+        <v>60.254933695857</v>
       </c>
       <c r="H2" t="n">
-        <v>51.0190010129927</v>
+        <v>60.3479853722731</v>
       </c>
       <c r="I2" t="n">
-        <v>48.4913604942146</v>
+        <v>60.3479853722731</v>
       </c>
       <c r="J2" t="n">
-        <v>48.4913604942146</v>
+        <v>60.3479853722731</v>
       </c>
       <c r="K2" t="n">
-        <v>55.6633512104006</v>
+        <v>60.3479853722731</v>
       </c>
       <c r="L2" t="n">
-        <v>55.6633512104006</v>
+        <v>60.3479853722731</v>
       </c>
       <c r="M2" t="inlineStr"/>
     </row>
@@ -528,34 +528,34 @@
         <v>55.99809881922718</v>
       </c>
       <c r="C3" t="n">
-        <v>52.59072688729343</v>
+        <v>59.73841370367211</v>
       </c>
       <c r="D3" t="n">
-        <v>54.68200242663048</v>
+        <v>62.13324481380963</v>
       </c>
       <c r="E3" t="n">
-        <v>53.11384525118893</v>
+        <v>61.90690331321431</v>
       </c>
       <c r="F3" t="n">
-        <v>53.27073347081827</v>
+        <v>66.28042706544271</v>
       </c>
       <c r="G3" t="n">
-        <v>61.22968633144066</v>
+        <v>66.28042706544271</v>
       </c>
       <c r="H3" t="n">
-        <v>56.12090111429197</v>
+        <v>66.38278390950042</v>
       </c>
       <c r="I3" t="n">
-        <v>53.34049654363606</v>
+        <v>66.38278390950042</v>
       </c>
       <c r="J3" t="n">
-        <v>53.34049654363606</v>
+        <v>66.38278390950042</v>
       </c>
       <c r="K3" t="n">
-        <v>61.22968633144066</v>
+        <v>66.38278390950042</v>
       </c>
       <c r="L3" t="n">
-        <v>61.22968633144066</v>
+        <v>66.38278390950042</v>
       </c>
       <c r="M3" t="inlineStr"/>
     </row>
@@ -566,40 +566,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.319873837</v>
+        <v>67.37608608500001</v>
       </c>
       <c r="C4" t="n">
-        <v>46.92161996500001</v>
+        <v>66.31642692400001</v>
       </c>
       <c r="D4" t="n">
-        <v>47.07700624</v>
+        <v>65.952842406</v>
       </c>
       <c r="E4" t="n">
-        <v>53.181182747</v>
+        <v>65.781038213</v>
       </c>
       <c r="F4" t="n">
-        <v>54.05911933399999</v>
+        <v>61.75739258700001</v>
       </c>
       <c r="G4" t="n">
-        <v>55.946714714</v>
+        <v>61.75739258700001</v>
       </c>
       <c r="H4" t="n">
-        <v>54.05911933399999</v>
+        <v>61.75739258700001</v>
       </c>
       <c r="I4" t="n">
-        <v>54.05911933399999</v>
+        <v>61.75739258700001</v>
       </c>
       <c r="J4" t="n">
-        <v>54.05911933399999</v>
+        <v>61.75739258700001</v>
       </c>
       <c r="K4" t="n">
-        <v>55.740361116</v>
+        <v>61.75739258700001</v>
       </c>
       <c r="L4" t="n">
-        <v>55.946714714</v>
+        <v>61.75739258700001</v>
       </c>
       <c r="M4" t="n">
-        <v>55.946714714</v>
+        <v>61.75739258700001</v>
       </c>
     </row>
     <row r="5">
@@ -610,34 +610,34 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>5.669106922293416</v>
+        <v>-6.578013220327904</v>
       </c>
       <c r="D5" t="n">
-        <v>7.60499618663048</v>
+        <v>-3.819597592190377</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.06733749581107418</v>
+        <v>-3.874134899785695</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7883858631817233</v>
+        <v>4.523034478442703</v>
       </c>
       <c r="G5" t="n">
-        <v>5.282971617440666</v>
+        <v>4.523034478442703</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06178178029198</v>
+        <v>4.625391322500413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7186227903639306</v>
+        <v>4.625391322500413</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.7186227903639306</v>
+        <v>4.625391322500413</v>
       </c>
       <c r="K5" t="n">
-        <v>5.489325215440658</v>
+        <v>4.625391322500413</v>
       </c>
       <c r="L5" t="n">
-        <v>5.282971617440666</v>
+        <v>4.625391322500413</v>
       </c>
       <c r="M5" t="inlineStr"/>
     </row>
